--- a/Gerenciamento_das_Sprints.xlsx
+++ b/Gerenciamento_das_Sprints.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Repositorios\GitHub\Equipe\Cronote\CronoteSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4B03E-3A3E-4DB8-AD90-36A48994C2CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDFD58-DBE4-40CB-A81E-E00FAE93E45A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9588" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9588" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="6" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="7" r:id="rId2"/>
     <sheet name="Sprint3" sheetId="8" r:id="rId3"/>
     <sheet name="Sprint4" sheetId="9" r:id="rId4"/>
-    <sheet name="Protótipo 1" sheetId="1" r:id="rId5"/>
-    <sheet name="Protótipo 2" sheetId="2" r:id="rId6"/>
-    <sheet name="Protótipo 3" sheetId="3" r:id="rId7"/>
-    <sheet name="Protótipo 4" sheetId="4" r:id="rId8"/>
-    <sheet name="Protótipo 5" sheetId="5" r:id="rId9"/>
+    <sheet name="Sprint 5" sheetId="10" r:id="rId5"/>
+    <sheet name="Protótipo 1" sheetId="1" r:id="rId6"/>
+    <sheet name="Protótipo 2" sheetId="2" r:id="rId7"/>
+    <sheet name="Protótipo 3" sheetId="3" r:id="rId8"/>
+    <sheet name="Protótipo 4" sheetId="4" r:id="rId9"/>
+    <sheet name="Protótipo 5" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>Sprint planning</t>
   </si>
@@ -279,6 +280,24 @@
   <si>
     <t>Ajustes na tela "Esqueceu senha"</t>
   </si>
+  <si>
+    <t>Tempo de execução VO</t>
+  </si>
+  <si>
+    <t>Tempo de execução BO</t>
+  </si>
+  <si>
+    <t>Tempo de execução DAO</t>
+  </si>
+  <si>
+    <t>Home (perspectiva de atividades) View</t>
+  </si>
+  <si>
+    <t>Home Controller</t>
+  </si>
+  <si>
+    <t>Fluxo de login Facebook</t>
+  </si>
 </sst>
 </file>
 
@@ -476,17 +495,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -1405,6 +1424,108 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1930,6 +2051,583 @@
                   <a:rPr lang="pt-BR"/>
                   <a:t>Pontos (Story Points)</a:t>
                 </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324334976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protótipo 5'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protótipo 5'!$H$4:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.850000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.750000000000014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.65000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.550000000000026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.500000000000025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.450000000000024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.400000000000023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.350000000000023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.300000000000022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.250000000000021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0500000000000203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D47-426A-9BCE-C888302AAD7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Protótipo 5'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Protótipo 5'!$J$4:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D47-426A-9BCE-C888302AAD7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="324334976"/>
+        <c:axId val="324334560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="324334976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Dias</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> (Interações)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324334560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324334560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Pontos (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1"/>
+                  <a:t>Story</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" i="1" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4087,7 +4785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 1'!$H$3</c:f>
+              <c:f>'Sprint 5'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4097,97 +4795,145 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 1'!$H$4:$H$24</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 5'!$H$4:$H$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 5'!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.95</c:v>
+                  <c:v>16.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.900000000000006</c:v>
+                  <c:v>15.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.850000000000009</c:v>
+                  <c:v>14.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.800000000000011</c:v>
+                  <c:v>12.857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.750000000000014</c:v>
+                  <c:v>11.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.700000000000017</c:v>
+                  <c:v>10.285714285714283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.65000000000002</c:v>
+                  <c:v>8.9999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.600000000000023</c:v>
+                  <c:v>7.7142857142857109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.550000000000026</c:v>
+                  <c:v>6.4285714285714253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.500000000000025</c:v>
+                  <c:v>5.1428571428571397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.450000000000024</c:v>
+                  <c:v>3.8571428571428541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.400000000000023</c:v>
+                  <c:v>2.5714285714285685</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.350000000000023</c:v>
+                  <c:v>1.2857142857142827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.300000000000022</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.250000000000021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.200000000000021</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.1500000000000199</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.1000000000000201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0500000000000203</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-3.1086244689504383E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,7 +4941,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8A3-460C-88E4-1FAFD0111F40}"/>
+              <c16:uniqueId val="{00000000-B448-4042-A7FF-C9501EFC362B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4204,7 +4950,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 1'!$J$3</c:f>
+              <c:f>'Sprint 5'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4214,98 +4960,145 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="002060"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 1'!$J$4:$J$24</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprint 5'!$J$4:$J$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprint 5'!$J$4:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>-5.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>61</c:v>
+                  <c:v>-12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,13 +5106,14 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8A3-460C-88E4-1FAFD0111F40}"/>
+              <c16:uniqueId val="{00000001-B448-4042-A7FF-C9501EFC362B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4337,6 +5131,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4344,7 +5152,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4358,11 +5166,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Dias</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> (Interações)</a:t>
+                  <a:t>Dias (Interações)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4380,7 +5184,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4396,6 +5200,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4417,7 +5222,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4446,20 +5251,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4467,7 +5258,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4481,21 +5272,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Pontos (</a:t>
+                  <a:t>Pontos (Story Points)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" i="1"/>
-                  <a:t>Story</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" i="1" baseline="0"/>
-                  <a:t> Points</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4512,7 +5290,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4534,8 +5312,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4572,7 +5356,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4608,7 +5392,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4664,7 +5448,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 2'!$H$3</c:f>
+              <c:f>'Protótipo 1'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4699,7 +5483,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 2'!$H$4:$H$24</c:f>
+              <c:f>'Protótipo 1'!$H$4:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4772,7 +5556,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6399-4540-8C37-4DA8F3C17D03}"/>
+              <c16:uniqueId val="{00000000-B8A3-460C-88E4-1FAFD0111F40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4781,7 +5565,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 2'!$J$3</c:f>
+              <c:f>'Protótipo 1'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4817,7 +5601,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 2'!$J$4:$J$24</c:f>
+              <c:f>'Protótipo 1'!$J$4:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4890,7 +5674,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6399-4540-8C37-4DA8F3C17D03}"/>
+              <c16:uniqueId val="{00000001-B8A3-460C-88E4-1FAFD0111F40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5241,7 +6025,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 3'!$H$3</c:f>
+              <c:f>'Protótipo 2'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5276,7 +6060,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 3'!$H$4:$H$24</c:f>
+              <c:f>'Protótipo 2'!$H$4:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5349,7 +6133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46E0-4BCF-ABA3-39E8CDEFDCC8}"/>
+              <c16:uniqueId val="{00000000-6399-4540-8C37-4DA8F3C17D03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5358,7 +6142,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 3'!$J$3</c:f>
+              <c:f>'Protótipo 2'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5394,7 +6178,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 3'!$J$4:$J$24</c:f>
+              <c:f>'Protótipo 2'!$J$4:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5467,7 +6251,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46E0-4BCF-ABA3-39E8CDEFDCC8}"/>
+              <c16:uniqueId val="{00000001-6399-4540-8C37-4DA8F3C17D03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5818,7 +6602,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 4'!$H$3</c:f>
+              <c:f>'Protótipo 3'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5853,7 +6637,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 4'!$H$4:$H$24</c:f>
+              <c:f>'Protótipo 3'!$H$4:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5926,7 +6710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAF3-4F04-8F12-0443F816B188}"/>
+              <c16:uniqueId val="{00000000-46E0-4BCF-ABA3-39E8CDEFDCC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5935,7 +6719,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 4'!$J$3</c:f>
+              <c:f>'Protótipo 3'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5971,7 +6755,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 4'!$J$4:$J$24</c:f>
+              <c:f>'Protótipo 3'!$J$4:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6044,7 +6828,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DAF3-4F04-8F12-0443F816B188}"/>
+              <c16:uniqueId val="{00000001-46E0-4BCF-ABA3-39E8CDEFDCC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6395,7 +7179,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 5'!$H$3</c:f>
+              <c:f>'Protótipo 4'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6430,7 +7214,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 5'!$H$4:$H$24</c:f>
+              <c:f>'Protótipo 4'!$H$4:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6503,7 +7287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D47-426A-9BCE-C888302AAD7E}"/>
+              <c16:uniqueId val="{00000000-DAF3-4F04-8F12-0443F816B188}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6512,7 +7296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Protótipo 5'!$J$3</c:f>
+              <c:f>'Protótipo 4'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6548,7 +7332,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Protótipo 5'!$J$4:$J$24</c:f>
+              <c:f>'Protótipo 4'!$J$4:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6621,7 +7405,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D47-426A-9BCE-C888302AAD7E}"/>
+              <c16:uniqueId val="{00000001-DAF3-4F04-8F12-0443F816B188}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6987,6 +7771,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7810,8 +8634,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7822,7 +8646,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7845,18 +8669,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -7868,7 +8692,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7876,11 +8700,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7912,45 +8736,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7962,34 +8776,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8011,13 +8821,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8032,15 +8844,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8051,16 +8863,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8069,10 +8882,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -8088,15 +8901,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8115,16 +8934,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8133,16 +8953,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8151,16 +8972,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8181,7 +9003,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -8189,7 +9011,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8202,17 +9024,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8220,10 +9031,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -8244,7 +9055,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8253,14 +9064,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8274,7 +9085,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -8290,8 +9101,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8307,17 +9118,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8325,13 +9125,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8852,7 +9658,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9373,8 +10179,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9385,7 +10191,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9408,18 +10214,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -9431,7 +10237,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9439,11 +10245,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9475,35 +10281,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9515,30 +10331,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9560,15 +10380,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9583,15 +10401,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9602,17 +10420,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9621,10 +10438,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -9640,21 +10457,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9673,17 +10484,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9692,17 +10502,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9711,17 +10520,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9742,7 +10550,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -9750,7 +10558,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9763,6 +10571,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9770,10 +10589,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -9794,7 +10613,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9803,14 +10622,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9824,7 +10643,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -9836,6 +10655,276 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
@@ -9846,8 +10935,126 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9858,20 +11065,158 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11909,6 +13254,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DE4549-9705-4EE2-9375-3DB2F2304183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12077,6 +13465,49 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2DDD30-BDF4-4CFA-9AA0-3A9FF564BD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -12101,7 +13532,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12144,7 +13575,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12187,7 +13618,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12230,98 +13661,79 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB10077D-5081-48FC-B101-2221A29DAA8D}" name="Tabela53" displayName="Tabela53" ref="B3:D24" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F2BCA2E0-6F56-4FC2-8D9A-8A52D3EEB272}" name="Atividade" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{7E5DE50C-5F04-44F7-B3F9-2BA918969F28}" name="Tempo (em dias)" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{2592189A-F32B-4A37-8506-E127F130D2BD}" name="Pontos" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB10077D-5081-48FC-B101-2221A29DAA8D}" name="Tabela53" displayName="Tabela53" ref="B3:D24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela510" displayName="Tabela510" ref="B3:D24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F2BCA2E0-6F56-4FC2-8D9A-8A52D3EEB272}" name="Atividade" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{7E5DE50C-5F04-44F7-B3F9-2BA918969F28}" name="Tempo (em dias)" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{2592189A-F32B-4A37-8506-E127F130D2BD}" name="Pontos" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Atividade" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tempo (em dias)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Pontos" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5A8F0A7B-4102-4212-947D-31A73617B7E9}" name="Tabela534" displayName="Tabela534" ref="B3:D24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5A8F0A7B-4102-4212-947D-31A73617B7E9}" name="Tabela534" displayName="Tabela534" ref="B3:D24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E46BC3A-3E73-4559-9B6E-08A53C6D969A}" name="Atividade" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4CB81A14-F235-4D65-AFAB-1C1911487647}" name="Tempo (em dias)" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{E6F6BF0C-3278-4770-BA2B-8D8F49B6C745}" name="Pontos" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{8E46BC3A-3E73-4559-9B6E-08A53C6D969A}" name="Atividade" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{4CB81A14-F235-4D65-AFAB-1C1911487647}" name="Tempo (em dias)" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{E6F6BF0C-3278-4770-BA2B-8D8F49B6C745}" name="Pontos" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4039BEF-F9CF-4F36-A3B1-E2BE35F25688}" name="Tabela5345" displayName="Tabela5345" ref="B3:D24" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C4039BEF-F9CF-4F36-A3B1-E2BE35F25688}" name="Tabela5345" displayName="Tabela5345" ref="B3:D24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C7A176F-E14B-4612-8EED-593CE18D5322}" name="Atividade" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{7177A365-6698-4A32-8CF2-CF97F300BA84}" name="Tempo (em dias)" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{418C98A8-7E11-435A-B617-21D2EE6484EC}" name="Pontos" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{0C7A176F-E14B-4612-8EED-593CE18D5322}" name="Atividade" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{7177A365-6698-4A32-8CF2-CF97F300BA84}" name="Tempo (em dias)" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{418C98A8-7E11-435A-B617-21D2EE6484EC}" name="Pontos" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DF748B6-4157-4792-982E-3C24B7F802C1}" name="Tabela53456" displayName="Tabela53456" ref="B3:D24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DF748B6-4157-4792-982E-3C24B7F802C1}" name="Tabela53456" displayName="Tabela53456" ref="B3:D24" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{97C3A529-E657-4F04-BC08-44EB860912A2}" name="Atividade" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{AF079345-7DBB-45EA-A956-F85747BC2BFA}" name="Tempo (em dias)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{72CF92B9-0F26-45F5-8E2B-982180DDF22D}" name="Pontos" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{97C3A529-E657-4F04-BC08-44EB860912A2}" name="Atividade" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{AF079345-7DBB-45EA-A956-F85747BC2BFA}" name="Tempo (em dias)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{72CF92B9-0F26-45F5-8E2B-982180DDF22D}" name="Pontos" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{535C8E6D-8E01-488D-82C4-6963B7F76B8E}" name="Tabela5345611" displayName="Tabela5345611" ref="B3:D24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EA9DD9B2-37C7-4C97-AAE0-28E1F05DD00C}" name="Atividade" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{63CEB94E-4640-4042-B90E-121B1B55C89B}" name="Tempo (em dias)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5ACF289D-C73B-452B-AAE5-8BA1DD6D7E40}" name="Pontos" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela5" displayName="Tabela5" ref="B3:D24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
@@ -12333,7 +13745,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela57" displayName="Tabela57" ref="B3:D24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
@@ -12345,7 +13757,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela58" displayName="Tabela58" ref="B3:D24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
@@ -12357,25 +13769,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela59" displayName="Tabela59" ref="B3:D24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Atividade" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tempo (em dias)" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pontos" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela510" displayName="Tabela510" ref="B3:D24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B3:D24" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Atividade" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tempo (em dias)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Pontos" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13194,10 +14594,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
@@ -13318,12 +14718,2799 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="12">
+        <f>D25/20</f>
+        <v>3.05</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43424</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D25</f>
+        <v>61</v>
+      </c>
+      <c r="J4" s="12">
+        <f>D25-I4</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>43425</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4-$J$2</f>
+        <v>57.95</v>
+      </c>
+      <c r="J5" s="12">
+        <f>J4-I5</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43426</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H23" si="0">H5-$J$2</f>
+        <v>54.900000000000006</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J24" si="1">J5-I6</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43427</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>51.850000000000009</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43428</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>48.800000000000011</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43429</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>45.750000000000014</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43430</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>42.700000000000017</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43431</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>39.65000000000002</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43432</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>36.600000000000023</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43433</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>33.550000000000026</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43434</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>30.500000000000025</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="12">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14">
+        <v>43435</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>27.450000000000024</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="12">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43436</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>24.400000000000023</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="12">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
+        <v>43437</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>21.350000000000023</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43438</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>18.300000000000022</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="12">
+        <v>16</v>
+      </c>
+      <c r="G19" s="14">
+        <v>43439</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
+        <v>15.250000000000021</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="12">
+        <v>17</v>
+      </c>
+      <c r="G20" s="14">
+        <v>43440</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>12.200000000000021</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="12">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14">
+        <v>43441</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>9.1500000000000199</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="12">
+        <v>19</v>
+      </c>
+      <c r="G22" s="14">
+        <v>43442</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000201</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="12">
+        <v>20</v>
+      </c>
+      <c r="G23" s="14">
+        <v>43443</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>3.0500000000000203</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="12">
+        <v>21</v>
+      </c>
+      <c r="G24" s="14">
+        <v>43444</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(Tabela510[Tempo (em dias)])</f>
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(Tabela510[Pontos])</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="16"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="12"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="12"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="12"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51D8E0-6F82-4452-9D07-1CCE40E53E9D}">
+  <dimension ref="B2:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="12">
+        <f>D25/14</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43288</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D25</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f>D25-I4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>43289</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4-$J$2</f>
+        <v>13</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <f>J4-I5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="18">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43290</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
+        <v>12</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J18" si="1">J5-I6</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43291</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43292</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43293</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="12">
+        <v>5</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20"/>
+      <c r="F10" s="12">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43294</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="12">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43295</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="F12" s="12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43296</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="F13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43297</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43298</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="F15" s="12">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14">
+        <v>43299</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="12">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43300</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="F17" s="12">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
+        <v>43301</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43302</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(Tabela534[Tempo (em dias)])</f>
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(Tabela534[Pontos])</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="12"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="12"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="12"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AECA8F-8A8F-4F10-8F01-6075C7260043}">
+  <dimension ref="B2:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="12">
+        <f>D25/14</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43330</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D25</f>
+        <v>38</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f>D25-I4</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>43331</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4-$J$2</f>
+        <v>35.285714285714285</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>J4-I5</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43332</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
+        <v>32.571428571428569</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J18" si="1">J5-I6</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43333</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>29.857142857142854</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43334</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>27.142857142857139</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43335</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>24.428571428571423</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43336</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>21.714285714285708</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43337</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>18.999999999999993</v>
+      </c>
+      <c r="I11" s="12">
+        <v>12</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43338</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>16.285714285714278</v>
+      </c>
+      <c r="I12" s="12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43339</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>13.571428571428562</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43340</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>10.857142857142847</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14">
+        <v>43341</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>8.1428571428571317</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43342</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>5.4285714285714173</v>
+      </c>
+      <c r="I16" s="12">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
+        <v>43343</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7142857142857029</v>
+      </c>
+      <c r="I17" s="12">
+        <v>3</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43344</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.1546319456101628E-14</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(Tabela5345[Tempo (em dias)])</f>
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(Tabela5345[Pontos])</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="12"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="12"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="12"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54BA1E7-31FC-48DD-B466-C948AB3B02A5}">
+  <dimension ref="B2:L50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="12">
+        <f>D25/14</f>
+        <v>2.1785714285714284</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="18">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>43365</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D25</f>
+        <v>30.5</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <f>D25-I4</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>43366</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4-$J$2</f>
+        <v>28.321428571428573</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>J4-I5</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>43367</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
+        <v>26.142857142857146</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J18" si="1">J5-I6</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43368</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>23.964285714285719</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43369</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>21.785714285714292</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>43370</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>19.607142857142865</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7</v>
+      </c>
+      <c r="G10" s="14">
+        <v>43371</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>17.428571428571438</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43372</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>15.250000000000009</v>
+      </c>
+      <c r="I11" s="12">
+        <v>11</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43373</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>13.07142857142858</v>
+      </c>
+      <c r="I12" s="12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43374</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>10.892857142857151</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <v>43375</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>8.7142857142857224</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="12">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14">
+        <v>43376</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5357142857142936</v>
+      </c>
+      <c r="I15" s="12">
+        <v>5</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>43377</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>4.3571428571428648</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>14</v>
+      </c>
+      <c r="G17" s="14">
+        <v>43378</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1785714285714364</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43379</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>7.9936057773011271E-15</v>
+      </c>
+      <c r="I18" s="12">
+        <v>7</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(Tabela53456[Tempo (em dias)])</f>
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(Tabela53456[Pontos])</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="12"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="12"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="12"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="12"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="12"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13358,12 +17545,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51D8E0-6F82-4452-9D07-1CCE40E53E9D}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41245191-EEF5-47DA-B4D3-0B9FACAF4D71}">
   <dimension ref="B2:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13387,7 +17574,7 @@
       <c r="G2" s="1"/>
       <c r="J2" s="12">
         <f>D25/14</f>
-        <v>1</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
@@ -13421,66 +17608,66 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
       <c r="D4" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12">
         <v>1</v>
       </c>
       <c r="G4" s="14">
-        <v>43288</v>
+        <v>43365</v>
       </c>
       <c r="H4" s="12">
         <f>D25</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
       </c>
       <c r="J4" s="12">
         <f>D25-I4</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C5" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="14">
-        <v>43289</v>
+        <v>43366</v>
       </c>
       <c r="H5" s="12">
         <f>H4-$J$2</f>
-        <v>13</v>
+        <v>16.714285714285715</v>
       </c>
       <c r="I5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
         <f>J4-I5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C6" s="18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" s="20">
         <v>1</v>
@@ -13489,54 +17676,54 @@
         <v>3</v>
       </c>
       <c r="G6" s="14">
-        <v>43290</v>
+        <v>43367</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
-        <v>12</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" ref="J6:J18" si="1">J5-I6</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C7" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="12">
         <v>4</v>
       </c>
       <c r="G7" s="14">
-        <v>43291</v>
+        <v>43368</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14.142857142857142</v>
       </c>
       <c r="I7" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C8" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="20">
         <v>5</v>
@@ -13545,40 +17732,46 @@
         <v>5</v>
       </c>
       <c r="G8" s="14">
-        <v>43292</v>
+        <v>43369</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="I8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>6</v>
+      </c>
       <c r="F9" s="12">
         <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>43293</v>
+        <v>43370</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11.571428571428569</v>
       </c>
       <c r="I9" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -13589,18 +17782,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="14">
-        <v>43294</v>
+        <v>43371</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10.285714285714283</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -13611,18 +17804,18 @@
         <v>8</v>
       </c>
       <c r="G11" s="14">
-        <v>43295</v>
+        <v>43372</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8.9999999999999964</v>
       </c>
       <c r="I11" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -13633,18 +17826,18 @@
         <v>9</v>
       </c>
       <c r="G12" s="14">
-        <v>43296</v>
+        <v>43373</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
+        <v>7.7142857142857109</v>
+      </c>
+      <c r="I12" s="12">
         <v>6</v>
-      </c>
-      <c r="I12" s="12">
-        <v>4</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -13655,18 +17848,18 @@
         <v>10</v>
       </c>
       <c r="G13" s="14">
-        <v>43297</v>
+        <v>43374</v>
       </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.4285714285714253</v>
       </c>
       <c r="I13" s="12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -13677,18 +17870,18 @@
         <v>11</v>
       </c>
       <c r="G14" s="14">
-        <v>43298</v>
+        <v>43375</v>
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.1428571428571397</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -13699,18 +17892,18 @@
         <v>12</v>
       </c>
       <c r="G15" s="14">
-        <v>43299</v>
+        <v>43376</v>
       </c>
       <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.8571428571428541</v>
       </c>
       <c r="I15" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -13721,18 +17914,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="14">
-        <v>43300</v>
+        <v>43377</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5714285714285685</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -13743,18 +17936,18 @@
         <v>14</v>
       </c>
       <c r="G17" s="14">
-        <v>43301</v>
+        <v>43378</v>
       </c>
       <c r="H17" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2857142857142827</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -13765,18 +17958,18 @@
         <v>15</v>
       </c>
       <c r="G18" s="14">
-        <v>43302</v>
+        <v>43379</v>
       </c>
       <c r="H18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.1086244689504383E-15</v>
       </c>
       <c r="I18" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -13832,12 +18025,12 @@
         <v>15</v>
       </c>
       <c r="C25" s="7">
-        <f>SUM(Tabela534[Tempo (em dias)])</f>
-        <v>21</v>
+        <f>SUM(Tabela5345611[Tempo (em dias)])</f>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <f>SUM(Tabela534[Pontos])</f>
-        <v>14</v>
+        <f>SUM(Tabela5345611[Pontos])</f>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
@@ -13850,17 +18043,15 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
-        <v>51</v>
-      </c>
+      <c r="B31" s="22"/>
       <c r="C31" s="24" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D31" s="24"/>
     </row>
@@ -13970,1444 +18161,12 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AECA8F-8A8F-4F10-8F01-6075C7260043}">
-  <dimension ref="B2:L50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="J2" s="12">
-        <f>D25/14</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43330</v>
-      </c>
-      <c r="H4" s="12">
-        <f>D25</f>
-        <v>38</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <f>D25-I4</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43331</v>
-      </c>
-      <c r="H5" s="12">
-        <f>H4-$J$2</f>
-        <v>35.285714285714285</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <f>J4-I5</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43332</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
-        <v>32.571428571428569</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" ref="J6:J18" si="1">J5-I6</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="19">
-        <v>2</v>
-      </c>
-      <c r="D7" s="21">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>43333</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>29.857142857142854</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43334</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>27.142857142857139</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43335</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>24.428571428571423</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="18">
-        <v>3</v>
-      </c>
-      <c r="D10" s="20">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43336</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>21.714285714285708</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43337</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>18.999999999999993</v>
-      </c>
-      <c r="I11" s="12">
-        <v>12</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43338</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>16.285714285714278</v>
-      </c>
-      <c r="I12" s="12">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="19">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>43339</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>13.571428571428562</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="18">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
-        <v>11</v>
-      </c>
-      <c r="G14" s="14">
-        <v>43340</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>10.857142857142847</v>
-      </c>
-      <c r="I14" s="12">
-        <v>3</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43341</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>8.1428571428571317</v>
-      </c>
-      <c r="I15" s="12">
-        <v>4</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="19">
-        <v>2</v>
-      </c>
-      <c r="D16" s="20">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14">
-        <v>43342</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>5.4285714285714173</v>
-      </c>
-      <c r="I16" s="12">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="19">
-        <v>2</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12">
-        <v>14</v>
-      </c>
-      <c r="G17" s="14">
-        <v>43343</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>2.7142857142857029</v>
-      </c>
-      <c r="I17" s="12">
-        <v>3</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14">
-        <v>43344</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.1546319456101628E-14</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <f>SUM(Tabela5345[Tempo (em dias)])</f>
-        <v>28</v>
-      </c>
-      <c r="D25" s="7">
-        <f>SUM(Tabela5345[Pontos])</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="12"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="12"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="12"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="12"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="12"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54BA1E7-31FC-48DD-B466-C948AB3B02A5}">
-  <dimension ref="B2:L50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="J2" s="12">
-        <f>D25/14</f>
-        <v>2.1785714285714284</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="18">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43365</v>
-      </c>
-      <c r="H4" s="12">
-        <f>D25</f>
-        <v>30.5</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <f>D25-I4</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43366</v>
-      </c>
-      <c r="H5" s="12">
-        <f>H4-$J$2</f>
-        <v>28.321428571428573</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <f>J4-I5</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43367</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H18" si="0">H5-$J$2</f>
-        <v>26.142857142857146</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" ref="J6:J18" si="1">J5-I6</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>43368</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>23.964285714285719</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43369</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>21.785714285714292</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="1"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43370</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>19.607142857142865</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="1"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43371</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>17.428571428571438</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="1"/>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43372</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>15.250000000000009</v>
-      </c>
-      <c r="I11" s="12">
-        <v>11</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43373</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>13.07142857142858</v>
-      </c>
-      <c r="I12" s="12">
-        <v>6</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>43374</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>10.892857142857151</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="18">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
-        <v>11</v>
-      </c>
-      <c r="G14" s="14">
-        <v>43375</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>8.7142857142857224</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="12">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43376</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>6.5357142857142936</v>
-      </c>
-      <c r="I15" s="12">
-        <v>5</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="12">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14">
-        <v>43377</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>4.3571428571428648</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="19">
-        <v>2</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12">
-        <v>14</v>
-      </c>
-      <c r="G17" s="14">
-        <v>43378</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>2.1785714285714364</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>3</v>
-      </c>
-      <c r="F18" s="12">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14">
-        <v>43379</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>7.9936057773011271E-15</v>
-      </c>
-      <c r="I18" s="12">
-        <v>7</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <f>SUM(Tabela53456[Tempo (em dias)])</f>
-        <v>27</v>
-      </c>
-      <c r="D25" s="7">
-        <f>SUM(Tabela53456[Pontos])</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="12"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="12"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="12"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="12"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="12"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -15442,7 +18201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L50"/>
   <sheetViews>
@@ -15990,10 +18749,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
@@ -16106,15 +18865,24 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
@@ -16127,15 +18895,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16146,7 +18905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L50"/>
   <sheetViews>
@@ -16694,10 +19453,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
@@ -16810,15 +19569,24 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
@@ -16831,15 +19599,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -16849,7 +19608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L50"/>
   <sheetViews>
@@ -17397,10 +20156,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
@@ -17513,15 +20272,24 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
@@ -17534,15 +20302,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -17552,7 +20311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L50"/>
   <sheetViews>
@@ -18100,10 +20859,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="16"/>
@@ -18216,15 +20975,24 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
@@ -18237,718 +21005,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:L50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13" style="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="J2" s="12">
-        <f>D25/20</f>
-        <v>3.05</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>43424</v>
-      </c>
-      <c r="H4" s="12">
-        <f>D25</f>
-        <v>61</v>
-      </c>
-      <c r="J4" s="12">
-        <f>D25-I4</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43425</v>
-      </c>
-      <c r="H5" s="12">
-        <f>H4-$J$2</f>
-        <v>57.95</v>
-      </c>
-      <c r="J5" s="12">
-        <f>J4-I5</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43426</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H23" si="0">H5-$J$2</f>
-        <v>54.900000000000006</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" ref="J6:J24" si="1">J5-I6</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>43427</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>51.850000000000009</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43428</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>48.800000000000011</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43429</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>45.750000000000014</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14">
-        <v>43430</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>42.700000000000017</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43431</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>39.65000000000002</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43432</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>36.600000000000023</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>43433</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>33.550000000000026</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12">
-        <v>11</v>
-      </c>
-      <c r="G14" s="14">
-        <v>43434</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>30.500000000000025</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="12">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43435</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>27.450000000000024</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="12">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14">
-        <v>43436</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>24.400000000000023</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="12">
-        <v>14</v>
-      </c>
-      <c r="G17" s="14">
-        <v>43437</v>
-      </c>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>21.350000000000023</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="12">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14">
-        <v>43438</v>
-      </c>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>18.300000000000022</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="12">
-        <v>16</v>
-      </c>
-      <c r="G19" s="14">
-        <v>43439</v>
-      </c>
-      <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>15.250000000000021</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="12">
-        <v>17</v>
-      </c>
-      <c r="G20" s="14">
-        <v>43440</v>
-      </c>
-      <c r="H20" s="12">
-        <f t="shared" si="0"/>
-        <v>12.200000000000021</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="12">
-        <v>18</v>
-      </c>
-      <c r="G21" s="14">
-        <v>43441</v>
-      </c>
-      <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>9.1500000000000199</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="12">
-        <v>19</v>
-      </c>
-      <c r="G22" s="14">
-        <v>43442</v>
-      </c>
-      <c r="H22" s="12">
-        <f t="shared" si="0"/>
-        <v>6.1000000000000201</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="12">
-        <v>20</v>
-      </c>
-      <c r="G23" s="14">
-        <v>43443</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>3.0500000000000203</v>
-      </c>
-      <c r="J23" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="12">
-        <v>21</v>
-      </c>
-      <c r="G24" s="14">
-        <v>43444</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <f>SUM(Tabela510[Tempo (em dias)])</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="7">
-        <f>SUM(Tabela510[Pontos])</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="12"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="12"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="12"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="12"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="12"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
